--- a/predict/pred_result_with_ad/test/tg403_aerosol_maccs_mdTrue_qda.xlsx
+++ b/predict/pred_result_with_ad/test/tg403_aerosol_maccs_mdTrue_qda.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999573913343</v>
+        <v>0.9999999531701713</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -488,7 +488,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.594295930805301</v>
+        <v>3.604081397159054</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10.35681975998343</v>
+        <v>10.37058777867607</v>
       </c>
     </row>
     <row r="3">
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.064788801121117e-54</v>
+        <v>3.893424678935351e-55</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.551999762368797</v>
+        <v>3.562586678874838</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>82.7603451656167</v>
+        <v>88.20292276087618</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.813918495566075e-86</v>
+        <v>7.63089039698065e-88</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.724652250049812</v>
+        <v>5.741843861455856</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>46.84601574153196</v>
+        <v>50.9417201670025</v>
       </c>
     </row>
     <row r="5">
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>9.243468508407557e-22</v>
+        <v>1.344137717404974e-20</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.153653277498632</v>
+        <v>4.154138315184727</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>38.6059696439301</v>
+        <v>38.92591555660816</v>
       </c>
     </row>
     <row r="6">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.099640232548492e-49</v>
+        <v>7.003961904868208e-48</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.134993897340319</v>
+        <v>3.148261952286871</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>30.74154885334158</v>
+        <v>35.17092410415548</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>8.523673163625734e-05</v>
+        <v>7.066245292820363e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.586119022397614</v>
+        <v>3.587393833545789</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>76.40976296693647</v>
+        <v>78.5248522394615</v>
       </c>
     </row>
     <row r="8">
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.931844294185962e-36</v>
+        <v>4.317509239030026e-38</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.79632038673921</v>
+        <v>3.815458457192825</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>19.60451736629537</v>
+        <v>19.99527398180253</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>8.9115867626187e-36</v>
+        <v>3.293424288561532e-35</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.687986709086486</v>
+        <v>3.686783931924772</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>27.31385617059323</v>
+        <v>27.341657632022</v>
       </c>
     </row>
     <row r="10">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.74950089479043</v>
+        <v>3.754891801654821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>13.76981949382639</v>
+        <v>13.97010100746024</v>
       </c>
     </row>
     <row r="11">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.114576686018304e-09</v>
+        <v>5.368736862287923e-10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.761552845699159</v>
+        <v>3.763673674071153</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>21.6826952754409</v>
+        <v>21.20089517865372</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>4.641469129270676e-96</v>
+        <v>2.352963600228402e-95</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.391396689039627</v>
+        <v>6.395070482744013</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>28.35163659774738</v>
+        <v>28.31569551696723</v>
       </c>
     </row>
     <row r="13">
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.35890243763515e-59</v>
+        <v>5.156925978183475e-58</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.214122213767613</v>
+        <v>5.227062717661866</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>56.98134756094379</v>
+        <v>56.50597190939261</v>
       </c>
     </row>
     <row r="14">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.523673163625734e-05</v>
+        <v>7.066245292820363e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.586119022397614</v>
+        <v>3.587393833545789</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>76.40976296693647</v>
+        <v>78.5248522394615</v>
       </c>
     </row>
     <row r="15">
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.866662528349918e-16</v>
+        <v>3.515928038562538e-09</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.316774233410026</v>
+        <v>4.32484171660191</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>9.795028543644209</v>
+        <v>9.765421746396196</v>
       </c>
     </row>
     <row r="16">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.199938150450487e-222</v>
+        <v>1.285656704452542e-237</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.892602498261022</v>
+        <v>8.903347535875353</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>64.06009461672859</v>
+        <v>64.59519298788183</v>
       </c>
     </row>
     <row r="17">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.092295786730488e-12</v>
+        <v>3.149994784694308e-12</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.08335274047991</v>
+        <v>5.089596947450748</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>44.47416954033934</v>
+        <v>44.70124298391919</v>
       </c>
     </row>
     <row r="18">
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.734048493374769e-64</v>
+        <v>3.077259806375207e-64</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.59758466968501</v>
+        <v>4.612208179590839</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>26.48385116891372</v>
+        <v>26.11770916416696</v>
       </c>
     </row>
     <row r="19">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.258821917189025e-90</v>
+        <v>3.673075484951006e-90</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4.838035911292848</v>
+        <v>4.840690207727523</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>99.1830527911229</v>
+        <v>99.37459592467783</v>
       </c>
     </row>
     <row r="20">
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3132500196833065</v>
+        <v>0.007835213675494663</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.369649248149917</v>
+        <v>3.380222147363198</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30.63536888771201</v>
+        <v>29.08930365760906</v>
       </c>
     </row>
     <row r="21">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.128950856270817</v>
+        <v>5.130025660029775</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>33.38729547246137</v>
+        <v>33.17540147334764</v>
       </c>
     </row>
     <row r="22">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>5.041504998893017e-105</v>
+        <v>3.891182414809954e-103</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.6174918265228</v>
+        <v>5.622531255964042</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>102.4769933132949</v>
+        <v>103.1199334987296</v>
       </c>
     </row>
     <row r="23">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.364462143047644e-23</v>
+        <v>1.474523843289038e-23</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.803757831142953</v>
+        <v>3.808020954414088</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>21.11110410279752</v>
+        <v>21.14082526336427</v>
       </c>
     </row>
     <row r="24">
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.86472308296822e-70</v>
+        <v>2.570714088950517e-69</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.368502409897713</v>
+        <v>4.370013127536899</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>20.39198722303743</v>
+        <v>20.16168478417828</v>
       </c>
     </row>
     <row r="25">
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999999999800755</v>
+        <v>0.9999999999516904</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.612060680175204</v>
+        <v>3.61470149522042</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>21.88549181456392</v>
+        <v>22.14978634199713</v>
       </c>
     </row>
     <row r="26">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.884549152675438e-47</v>
+        <v>1.644587032487489e-47</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4.291111640581463</v>
+        <v>4.298201589211849</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20.91778552494299</v>
+        <v>19.12691889151824</v>
       </c>
     </row>
     <row r="27">
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.291213563128366e-162</v>
+        <v>1.493011897631344e-162</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.668798562518343</v>
+        <v>4.672459953065037</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>38.23047354742977</v>
+        <v>38.53393816349313</v>
       </c>
     </row>
     <row r="28">
@@ -1234,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9816961386374312</v>
+        <v>0.9900924371625136</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.981681295099622</v>
+        <v>3.990972118546128</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>46.83366841770253</v>
+        <v>48.14550311131915</v>
       </c>
     </row>
     <row r="29">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.637318845921958e-41</v>
+        <v>4.014461450661383e-41</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4.122318184763804</v>
+        <v>4.128024584262126</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>21.43206176758524</v>
+        <v>21.12952050540284</v>
       </c>
     </row>
     <row r="30">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>2.697053469684043e-168</v>
+        <v>1.962886504254608e-174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.403082386377783</v>
+        <v>8.420893169524616</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>241.4698035189205</v>
+        <v>244.8933939978749</v>
       </c>
     </row>
     <row r="31">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.08449235527925e-103</v>
+        <v>1.135256659355882e-104</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.1679032432898</v>
+        <v>5.178507730435135</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>117.0212314023654</v>
+        <v>120.6257483482049</v>
       </c>
     </row>
     <row r="32">
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.526908761539633e-60</v>
+        <v>1.840620591131467e-61</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.261787824866651</v>
+        <v>5.260223189937347</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>136.3114834844222</v>
+        <v>135.9654487594261</v>
       </c>
     </row>
     <row r="33">
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1.28767979645854e-52</v>
+        <v>5.041543010614693e-49</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.792099383643531</v>
+        <v>4.798431177002463</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>100000.0101833734</v>
+        <v>100000.0104563037</v>
       </c>
     </row>
     <row r="34">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.069131982834491</v>
+        <v>6.079039396367826</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>33.78227621968581</v>
+        <v>35.64116034292643</v>
       </c>
     </row>
     <row r="35">
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2.956652116468128</v>
+        <v>3.007368719010288</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>184.2550709965568</v>
+        <v>180.656271724112</v>
       </c>
     </row>
     <row r="36">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>2.3065483381362e-33</v>
+        <v>2.733404982307097e-33</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1474,7 +1474,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6.866035198427231</v>
+        <v>6.87339346860724</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>63.56973867095476</v>
+        <v>63.63491603783047</v>
       </c>
     </row>
     <row r="37">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>6.17878149638271e-114</v>
+        <v>1.234320011390101e-111</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.620202236502718</v>
+        <v>3.621971041613074</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>13.82579788108954</v>
+        <v>13.79863587434725</v>
       </c>
     </row>
     <row r="38">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.679935607551705e-55</v>
+        <v>4.219094273353704e-57</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.234255244105398</v>
+        <v>4.235157877884945</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>19.41218336053751</v>
+        <v>19.64804935332408</v>
       </c>
     </row>
     <row r="39">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.221833988687463e-36</v>
+        <v>1.474656814986282e-32</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4.674302536153124</v>
+        <v>4.673962211123595</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>82.5990908862962</v>
+        <v>83.23706121768552</v>
       </c>
     </row>
     <row r="40">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.996040257046638e-64</v>
+        <v>1.122692369504116e-63</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.240660945589911</v>
+        <v>3.252875673040265</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>23.63314458482492</v>
+        <v>23.83714052696655</v>
       </c>
     </row>
     <row r="41">
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.10410827415544e-42</v>
+        <v>3.28173626218462e-44</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>3.213235494677299</v>
+        <v>3.213155073617477</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>14.32591578087984</v>
+        <v>14.50702974966542</v>
       </c>
     </row>
     <row r="42">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5257099401784395</v>
+        <v>0.1004367289742611</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4.373351006714612</v>
+        <v>4.376057921901644</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>70.11426472805492</v>
+        <v>70.37564622013981</v>
       </c>
     </row>
     <row r="43">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.869287985809094e-145</v>
+        <v>1.465671702807123e-143</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.6965258731534</v>
+        <v>5.696889116872132</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>42.44533354470202</v>
+        <v>42.64206697900361</v>
       </c>
     </row>
     <row r="44">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.426672869026268e-32</v>
+        <v>1.620630342731023e-32</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5.040413665871593</v>
+        <v>5.040567075056479</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>20.41760434939584</v>
+        <v>20.49957783208863</v>
       </c>
     </row>
     <row r="45">
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>6.17878149638271e-114</v>
+        <v>1.234320011390101e-111</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.620202236502718</v>
+        <v>3.621971041613074</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>13.82579788108954</v>
+        <v>13.79863587434725</v>
       </c>
     </row>
     <row r="46">
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.532447272711701e-23</v>
+        <v>1.891948712249998e-23</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.517035125413514</v>
+        <v>3.57070630353145</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>40.11880862669511</v>
+        <v>48.81180063339979</v>
       </c>
     </row>
     <row r="47">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.443024466678459e-43</v>
+        <v>1.896366410370765e-44</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.004523305943182</v>
+        <v>4.005716927579958</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>10.99539649345314</v>
+        <v>11.00423926589526</v>
       </c>
     </row>
     <row r="48">
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.162245408755622e-81</v>
+        <v>2.948819960698222e-69</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5.906242024778045</v>
+        <v>5.922210241654003</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>223606.817159516</v>
+        <v>223606.8172877868</v>
       </c>
     </row>
     <row r="49">
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>4.664094307079675e-140</v>
+        <v>4.375398969669286e-140</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1851,7 +1851,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.413198999491551</v>
+        <v>6.423587858925128</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>42.47221499049404</v>
+        <v>44.33232940328996</v>
       </c>
     </row>
     <row r="50">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>4.071991162863046e-80</v>
+        <v>7.31878497806256e-82</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.571129586642203</v>
+        <v>3.573113540265803</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>39.40391045955522</v>
+        <v>41.59170035234454</v>
       </c>
     </row>
     <row r="51">
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>6.950141051603207e-31</v>
+        <v>1.135085187846023e-30</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4.767578574716945</v>
+        <v>4.772820037473623</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>44.99510406059119</v>
+        <v>45.15571303693142</v>
       </c>
     </row>
     <row r="52">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.397437223799029e-20</v>
+        <v>3.995369045637877e-21</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2.812995610893795</v>
+        <v>2.828694220172292</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>12.96438981616803</v>
+        <v>13.50688667208973</v>
       </c>
     </row>
     <row r="53">
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.02647472710640784</v>
+        <v>0.0003836793323038084</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.374826877397469</v>
+        <v>3.38543758546426</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -1975,7 +1975,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>33.69015578946986</v>
+        <v>34.04980935507232</v>
       </c>
     </row>
     <row r="54">
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1.574690976186736e-84</v>
+        <v>1.31944973859355e-86</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3.81407615067823</v>
+        <v>3.813266318646893</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>24.38867997428593</v>
+        <v>24.64832083931335</v>
       </c>
     </row>
     <row r="55">
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1.751362381874653e-96</v>
+        <v>4.860095207327702e-96</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>4.146856965726908</v>
+        <v>4.146479614856339</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>26.29281302217658</v>
+        <v>26.41346554862619</v>
       </c>
     </row>
     <row r="56">
@@ -2054,7 +2054,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4.595721625970261</v>
+        <v>4.596017793029691</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>20.57695084909583</v>
+        <v>19.53081985201838</v>
       </c>
     </row>
     <row r="57">
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>2.463141141293857e-17</v>
+        <v>1.359584482876958e-17</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2083,7 +2083,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3.699317004069739</v>
+        <v>3.699931624121232</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2091,7 +2091,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>13.80963414574033</v>
+        <v>13.73093544661169</v>
       </c>
     </row>
     <row r="58">
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>6.159024014399873e-65</v>
+        <v>1.050603997380748e-60</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4.373891692371879</v>
+        <v>4.374193771513281</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>34.70317722724197</v>
+        <v>34.80744196010248</v>
       </c>
     </row>
     <row r="59">
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>5.425311731132065e-25</v>
+        <v>6.047969524565033e-25</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4.102191384277464</v>
+        <v>4.10527341241017</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>19.36741982481907</v>
+        <v>19.2918654736227</v>
       </c>
     </row>
     <row r="60">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>3.613605255700251e-11</v>
+        <v>3.553949005582335e-11</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3.965617622561478</v>
+        <v>3.968184201072953</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>22.56963885408668</v>
+        <v>22.61158942504639</v>
       </c>
     </row>
     <row r="61">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>2.577731298233314e-82</v>
+        <v>5.201710931217298e-82</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2199,7 +2199,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3.657972931744954</v>
+        <v>3.654832200135759</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>20.75667229854692</v>
+        <v>20.80048268363534</v>
       </c>
     </row>
     <row r="62">
@@ -2220,7 +2220,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.9906449116554035</v>
+        <v>0.9911246787220023</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3.807651696050155</v>
+        <v>3.809868009579232</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>52.64003686654867</v>
+        <v>52.44427760374552</v>
       </c>
     </row>
     <row r="63">
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>3.184166106705604e-39</v>
+        <v>6.478652853386918e-42</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3.21286633605522</v>
+        <v>3.214286754669449</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>21.746175871417</v>
+        <v>21.82192490452223</v>
       </c>
     </row>
     <row r="64">
@@ -2278,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.9999972963881529</v>
+        <v>0.9999969070943793</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4.060454174520018</v>
+        <v>4.069546925654693</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>17.78434920030801</v>
+        <v>17.75513880999081</v>
       </c>
     </row>
     <row r="65">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3.404170631677289</v>
+        <v>3.405259823338607</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>22.98119060059499</v>
+        <v>22.95142834336725</v>
       </c>
     </row>
     <row r="66">
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>2.251657745568263e-17</v>
+        <v>1.168058642690231e-18</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2344,7 +2344,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.09316638145105</v>
+        <v>3.104174242931224</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>30.91078435822964</v>
+        <v>32.77473386777115</v>
       </c>
     </row>
     <row r="67">
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>4.346894608214521e-271</v>
+        <v>3.054483529538247e-275</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>8.201889938034912</v>
+        <v>8.213132028680491</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>30.0072042109941</v>
+        <v>30.06259692504038</v>
       </c>
     </row>
     <row r="68">
@@ -2394,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>6.235494379946469e-90</v>
+        <v>3.89028829910589e-89</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.219203764473875</v>
+        <v>5.220563653839561</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>40.78967480713967</v>
+        <v>41.14554051342453</v>
       </c>
     </row>
     <row r="69">
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004030243187044123</v>
+        <v>4.503593735680095e-05</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3.834010706205337</v>
+        <v>3.835025496292549</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>45.82535042387394</v>
+        <v>46.19735668188203</v>
       </c>
     </row>
     <row r="70">
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>4.980066229685417e-08</v>
+        <v>7.959162543327659e-08</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.193195890490734</v>
+        <v>3.203358484045495</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>28.6606045423883</v>
+        <v>28.87967311755077</v>
       </c>
     </row>
     <row r="71">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1.10410827415544e-42</v>
+        <v>3.28173626218462e-44</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.213235494677299</v>
+        <v>3.213155073617477</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14.32591578087984</v>
+        <v>14.50702974966542</v>
       </c>
     </row>
     <row r="72">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1.601155324029893e-25</v>
+        <v>1.211378974452996e-18</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4.500283740093505</v>
+        <v>4.496852979573941</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>49.21190900555867</v>
+        <v>50.36850625180411</v>
       </c>
     </row>
     <row r="73">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>2.467576190038586e-20</v>
+        <v>9.714047279108045e-22</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>3.969162771229818</v>
+        <v>3.976537312191888</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>23.10113912227906</v>
+        <v>23.27043931316769</v>
       </c>
     </row>
     <row r="74">
@@ -2568,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9999998329414953</v>
+        <v>0.9999991009945401</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.644014658958603</v>
+        <v>3.653623999772581</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>23.05745851167028</v>
+        <v>22.66553691167967</v>
       </c>
     </row>
     <row r="75">
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999999573913343</v>
+        <v>0.9999999531701713</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3.594295930805301</v>
+        <v>3.604081397159054</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>10.35681975998343</v>
+        <v>10.37058777867607</v>
       </c>
     </row>
     <row r="76">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>7.643795071834023e-136</v>
+        <v>2.163125589215038e-131</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2634,7 +2634,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5.678689399034746</v>
+        <v>5.685846903518421</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>98.18492928571727</v>
+        <v>100.0633637230953</v>
       </c>
     </row>
     <row r="77">
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>7.114557518147243e-71</v>
+        <v>1.135682741329477e-70</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.608977017779679</v>
+        <v>4.610836419245484</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>23.23389327586923</v>
+        <v>23.36751143216738</v>
       </c>
     </row>
     <row r="78">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>3.518650204534679e-52</v>
+        <v>1.696856515679844e-52</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>4.714456737733078</v>
+        <v>4.717989278589507</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>36.53875880960351</v>
+        <v>39.67341359237742</v>
       </c>
     </row>
     <row r="79">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.02732541252321995</v>
+        <v>0.02183693549625203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3.750129782200988</v>
+        <v>3.750986346579496</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -2729,7 +2729,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>19.3038968172959</v>
+        <v>22.51602537693479</v>
       </c>
     </row>
     <row r="80">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.500846262770164e-151</v>
+        <v>2.561094553895003e-154</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6.375029716302</v>
+        <v>6.38240828558362</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>70710.78850251141</v>
+        <v>70710.78928466687</v>
       </c>
     </row>
     <row r="81">
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>6.792593974524655e-103</v>
+        <v>1.216637965358054e-102</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6.536804373993274</v>
+        <v>6.540990560758083</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>31.76030942985197</v>
+        <v>31.57739906204376</v>
       </c>
     </row>
     <row r="82">
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1.043431837714927e-17</v>
+        <v>8.797142115128388e-18</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3.897612666980075</v>
+        <v>3.905840631388139</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>34.81852771634722</v>
+        <v>36.04046774749781</v>
       </c>
     </row>
     <row r="83">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002582614873239054</v>
+        <v>4.332057241611581e-05</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.606288651864513</v>
+        <v>6.616335213031413</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>100000.0175673276</v>
+        <v>100000.0177153854</v>
       </c>
     </row>
     <row r="84">
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.999918318417924</v>
+        <v>0.9998671637847847</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6.092582102797996</v>
+        <v>6.097397023023952</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>300000.0058681532</v>
+        <v>300000.0061276261</v>
       </c>
     </row>
     <row r="85">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>3.005794746189712e-22</v>
+        <v>9.252916683737229e-24</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4.803094052735802</v>
+        <v>4.799863603928583</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>70.65547416967109</v>
+        <v>71.6459641443128</v>
       </c>
     </row>
     <row r="86">
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3.718466700719941</v>
+        <v>3.720231983134258</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>26.57548385132646</v>
+        <v>26.72205258481633</v>
       </c>
     </row>
     <row r="87">
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3.885262247550358</v>
+        <v>3.890561979898725</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>13.45574180022733</v>
+        <v>13.52289202108531</v>
       </c>
     </row>
     <row r="88">
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>1.731400776524361e-113</v>
+        <v>1.973603105116298e-118</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.446151235235394</v>
+        <v>5.451483802863786</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>57.71315859070386</v>
+        <v>57.56039032086456</v>
       </c>
     </row>
     <row r="89">
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>5.139043020812248e-71</v>
+        <v>1.357976934455117e-70</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4.295906803958287</v>
+        <v>4.297191462867121</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>21.31317722098186</v>
+        <v>21.33287105032733</v>
       </c>
     </row>
     <row r="90">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>8.038260663986441e-111</v>
+        <v>1.594946534032051e-110</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4.622111521744427</v>
+        <v>4.620927922985179</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>36.85674807064962</v>
+        <v>36.7187022823114</v>
       </c>
     </row>
     <row r="91">
@@ -3069,7 +3069,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5.97961044933017</v>
+        <v>5.989981892890802</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>125.4228407599986</v>
+        <v>132.6961171861979</v>
       </c>
     </row>
     <row r="92">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6.622901062162012</v>
+        <v>6.63414533731756</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>151.1201280510743</v>
+        <v>156.666755625902</v>
       </c>
     </row>
     <row r="93">
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>6.602598057760827e-261</v>
+        <v>1.119419717155598e-259</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>8.541819134339448</v>
+        <v>8.555005193649675</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>82.10601559451311</v>
+        <v>83.13435536630277</v>
       </c>
     </row>
     <row r="94">
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0004980590094190371</v>
+        <v>0.9999477162520238</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3.455567961023421</v>
+        <v>3.430264592032081</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>15.57748560765909</v>
+        <v>14.87698881588267</v>
       </c>
     </row>
     <row r="95">
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>3.598995891900357e-10</v>
+        <v>2.931249469305774e-10</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3.182618998404666</v>
+        <v>3.194816735436942</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>23.10346944456125</v>
+        <v>23.50688586610168</v>
       </c>
     </row>
     <row r="96">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1.590510464780615e-43</v>
+        <v>1.127667960449418e-43</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>4.695993981172141</v>
+        <v>4.703345982223889</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>55.26664561062569</v>
+        <v>55.39312509953304</v>
       </c>
     </row>
     <row r="97">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>4.793900735653601</v>
+        <v>4.800880466656644</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>21.59763282646328</v>
+        <v>21.91161933344392</v>
       </c>
     </row>
     <row r="98">
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1.359774934063411e-13</v>
+        <v>1.399211844523075e-13</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.839500938696165</v>
+        <v>3.850306429936037</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>20.22898541848319</v>
+        <v>20.52848567975289</v>
       </c>
     </row>
     <row r="99">
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9999999999998741</v>
+        <v>0.9999999999998583</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>4.073024961992319</v>
+        <v>4.077549611919864</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>17.98526804197256</v>
+        <v>18.10173546045</v>
       </c>
     </row>
     <row r="100">
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>4.524767696880858e-48</v>
+        <v>5.83046517056062e-49</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5.385795422664128</v>
+        <v>5.393065055882572</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>48.71527095509892</v>
+        <v>49.54536998937818</v>
       </c>
     </row>
     <row r="101">
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>2.690719031966925e-118</v>
+        <v>7.013654981964831e-118</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6.615343970400628</v>
+        <v>6.626309789942913</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>28.27576407671181</v>
+        <v>28.64766426465163</v>
       </c>
     </row>
     <row r="102">
@@ -3380,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>9.482043818835743e-29</v>
+        <v>9.905255255647565e-22</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3.045368417907293</v>
+        <v>3.017298512151445</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>39.3247401322472</v>
+        <v>35.77295455149065</v>
       </c>
     </row>
     <row r="103">
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3.669934906878816</v>
+        <v>3.679415737845852</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.57703019152096</v>
+        <v>11.94945102695615</v>
       </c>
     </row>
     <row r="104">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>6.542111883043742e-48</v>
+        <v>6.367021574130565e-48</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.045956772339718</v>
+        <v>4.052785351753793</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>54.77779917300523</v>
+        <v>55.47273831677111</v>
       </c>
     </row>
     <row r="105">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>6.805606944426901e-118</v>
+        <v>1.316352772450592e-118</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>4.585518270565713</v>
+        <v>4.584757448605737</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>37.32589494405979</v>
+        <v>36.91987047882609</v>
       </c>
     </row>
     <row r="106">
@@ -3496,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>3.594288645952951e-78</v>
+        <v>5.364841094538336e-79</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.885956739351148</v>
+        <v>4.888718845927384</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>30.7010421961619</v>
+        <v>30.15426627637537</v>
       </c>
     </row>
     <row r="107">
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>3.961023406572728e-17</v>
+        <v>5.243375624723009e-18</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.967117173934018</v>
+        <v>4.977825005610061</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>32.93383399826938</v>
+        <v>30.53621450598672</v>
       </c>
     </row>
     <row r="108">
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1.68603824134798e-24</v>
+        <v>9.67475958662263e-25</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>5.936459836059702</v>
+        <v>5.945886403620356</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>33.8281568225947</v>
+        <v>34.36905550309096</v>
       </c>
     </row>
     <row r="109">
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>3.332836198628659e-67</v>
+        <v>5.711060599257927e-66</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4.540069282145506</v>
+        <v>4.541440350421778</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>25.8269028124265</v>
+        <v>26.02854268640157</v>
       </c>
     </row>
     <row r="110">
@@ -3612,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>2.149734045630707e-92</v>
+        <v>2.592662964888215e-97</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4.277403789520142</v>
+        <v>4.278082318082483</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>19.61600343723541</v>
+        <v>19.60132539438665</v>
       </c>
     </row>
     <row r="111">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>1.380080802524367e-57</v>
+        <v>9.242357247379095e-58</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>3.676614298100237</v>
+        <v>3.680914944933094</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>26.90194883659159</v>
+        <v>26.6172903606987</v>
       </c>
     </row>
     <row r="112">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.09762303610661838</v>
+        <v>0.587185360469654</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4.739748962197683</v>
+        <v>4.739822901490703</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>44.04473572827843</v>
+        <v>43.44098780261015</v>
       </c>
     </row>
     <row r="113">
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>1.601155324029893e-25</v>
+        <v>1.211378974452996e-18</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.500283740093505</v>
+        <v>4.496852979573941</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>49.21190900555867</v>
+        <v>50.36850625180411</v>
       </c>
     </row>
   </sheetData>
